--- a/testAssignment/loan_data.xlsx
+++ b/testAssignment/loan_data.xlsx
@@ -8,14 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Data sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Chartsheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Dummysheet" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="chart_labels">IF(Chartsheet!$A$1="By Year",            Dummysheet!$B$1:$B$3,            IF(Chartsheet!$A$1="By Country",            Dummysheet!$D$1:$D$34,            Dummysheet!$F$1:$F$13        )    )</definedName>
+    <definedName name="chart_series">IF(Chartsheet!$A$1="By Year",            Dummysheet!$A$1:$A$3,            IF(Chartsheet!$A$1="By Country",            Dummysheet!$C$1:$C$34,            Dummysheet!$E$1:$E$13        )    )</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="196">
   <si>
     <t>SIGNATURE DATE</t>
   </si>
@@ -83,12 +88,12 @@
     <t>DKB RENEWABLE ENERGY AND MUNICIPAL INFRASTR MBIL</t>
   </si>
   <si>
+    <t>KRAKOW TRAMWAY IV</t>
+  </si>
+  <si>
     <t>SUSTAINABLE URBAN DEVELOPMENT IN GREECE</t>
   </si>
   <si>
-    <t>KRAKOW TRAMWAY IV</t>
-  </si>
-  <si>
     <t>ECI ENERGY EFFICIENCY AND INNOVATION</t>
   </si>
   <si>
@@ -101,91 +106,94 @@
     <t>CAIXABANK LOAN FOR SMES &amp; OTHER PRIORITIES</t>
   </si>
   <si>
+    <t>SAO TOME WATER SUPPLY</t>
+  </si>
+  <si>
     <t>ISRAEL LOAN FOR SMES&amp;MIDCAPS &amp; GREEN TRANSITION</t>
   </si>
   <si>
-    <t>SAO TOME WATER SUPPLY</t>
-  </si>
-  <si>
     <t>SBI CLIMATE ACTION FL</t>
   </si>
   <si>
     <t>AFREXIMBANK AFRICA HEALTH RESILIENCE FL</t>
   </si>
   <si>
+    <t>BICE ARGENTINA - GREEN MBIL</t>
+  </si>
+  <si>
+    <t>CONGO DIGITAL TRANSFORMATION</t>
+  </si>
+  <si>
     <t>ARGENTINA - TRANSMISSION NETWORK INVESTMENTS FL</t>
   </si>
   <si>
-    <t>BICE ARGENTINA - GREEN MBIL</t>
-  </si>
-  <si>
     <t>MODERNISATION DU RESEAU ROUTIER AU TCHAD</t>
   </si>
   <si>
-    <t>CONGO DIGITAL TRANSFORMATION</t>
-  </si>
-  <si>
     <t>EGYPT INCLUSIVE GROWTH FACILITY</t>
   </si>
   <si>
+    <t>REGIONE EMILIA-ROMAGNA EU BLENDING PROGRAMME</t>
+  </si>
+  <si>
     <t>RRF ITALY - FOF SUSTAINABLE TOURISM - EQUITER</t>
   </si>
   <si>
+    <t>RRF ITALY - FOF SUSTAINABLE TOURISM - FININT</t>
+  </si>
+  <si>
+    <t>RRF ITALY - FOF URBAN INTEGRATED PLANS - FININT</t>
+  </si>
+  <si>
+    <t>SBCI SME AND CLIMATE ACTION INVESTMENT PLATFORM</t>
+  </si>
+  <si>
+    <t>CONNECTED SCHOOLS IN SERBIA</t>
+  </si>
+  <si>
+    <t>WARSAW SUSTAINABLE WATER AND WASTEWATER NETWORK</t>
+  </si>
+  <si>
+    <t>MSME OUTREACH INITIATIVE - CAUCASUS</t>
+  </si>
+  <si>
+    <t>FRANFINANCE ENERGY EFFICIENCY PF4EE FL</t>
+  </si>
+  <si>
+    <t>PROJECT JUSTICE (SA)</t>
+  </si>
+  <si>
+    <t>BANCO ESTADO ECOVIVIENDA - ENERGY MBIL</t>
+  </si>
+  <si>
     <t>RRF ITALY - FOF URBAN INTEGRATED PLANS - EQUITER</t>
   </si>
   <si>
-    <t>RRF ITALY - FOF SUSTAINABLE TOURISM - FININT</t>
-  </si>
-  <si>
-    <t>SBCI SME AND CLIMATE ACTION INVESTMENT PLATFORM</t>
-  </si>
-  <si>
     <t>FAYOUM WASTEWATER EXPANSION PROJECT</t>
   </si>
   <si>
-    <t>CONNECTED SCHOOLS IN SERBIA</t>
-  </si>
-  <si>
-    <t>RRF ITALY - FOF URBAN INTEGRATED PLANS - FININT</t>
-  </si>
-  <si>
-    <t>WARSAW SUSTAINABLE WATER AND WASTEWATER NETWORK</t>
-  </si>
-  <si>
-    <t>REGIONE EMILIA-ROMAGNA EU BLENDING PROGRAMME</t>
-  </si>
-  <si>
-    <t>FRANFINANCE ENERGY EFFICIENCY PF4EE FL</t>
-  </si>
-  <si>
-    <t>MSME OUTREACH INITIATIVE - CAUCASUS</t>
-  </si>
-  <si>
-    <t>BANCO ESTADO ECOVIVIENDA - ENERGY MBIL</t>
-  </si>
-  <si>
-    <t>PROJECT JUSTICE (SA)</t>
+    <t>MCC SUSTAINABLE LOAN FOR COHESION SMES &amp; MIDCAPS</t>
   </si>
   <si>
     <t>FRANFINANCE ENERGY EFFICIENCY PF4EE CA</t>
   </si>
   <si>
+    <t>STEG - PROGRAMME TRANSPORT ET DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>PIAGGIO RDI FOR E-MOBILITY</t>
+  </si>
+  <si>
+    <t>PUNCH SUSTAINABLE POWERTRAIN SOLUTIONS</t>
+  </si>
+  <si>
+    <t>OTP SERBIA LOAN FOR SMES &amp; MIDCAPS</t>
+  </si>
+  <si>
     <t>CELLECTIS (IEU TI)</t>
   </si>
   <si>
-    <t>MCC SUSTAINABLE LOAN FOR COHESION SMES &amp; MIDCAPS</t>
-  </si>
-  <si>
-    <t>PIAGGIO RDI FOR E-MOBILITY</t>
-  </si>
-  <si>
-    <t>PUNCH SUSTAINABLE POWERTRAIN SOLUTIONS</t>
-  </si>
-  <si>
-    <t>OTP SERBIA LOAN FOR SMES &amp; MIDCAPS</t>
-  </si>
-  <si>
-    <t>STEG - PROGRAMME TRANSPORT ET DISTRIBUTION</t>
+    <t>COVID-19 HEALTH RESPONSE GHANA</t>
   </si>
   <si>
     <t>FIBER OPTIC NETWORK ROLL OUT POLAND (FONROP)</t>
@@ -194,58 +202,58 @@
     <t>ARMENIA ECONOMIC RESILIENCE FACILITY</t>
   </si>
   <si>
+    <t>DAKAR PUBLIC TRANSPORT NETWORK RESTRUCTURING</t>
+  </si>
+  <si>
     <t>ANGOLA COVID-19 HEALTH RESILIENCE</t>
   </si>
   <si>
-    <t>COVID-19 HEALTH RESPONSE GHANA</t>
-  </si>
-  <si>
     <t>SENEGAL EAU POTABLE &amp; COVID-19</t>
   </si>
   <si>
-    <t>DAKAR PUBLIC TRANSPORT NETWORK RESTRUCTURING</t>
-  </si>
-  <si>
     <t>EU FUNDS CO-FINANCING 2014-2020 (PT)</t>
   </si>
   <si>
     <t>GLOBAL GATEWAY FUND (GGF)</t>
   </si>
   <si>
+    <t>ASJA WIND REPOWERING AND NEW PROJECTS</t>
+  </si>
+  <si>
+    <t>ENGIE GREEN RDI</t>
+  </si>
+  <si>
+    <t>WINGCOPTER LAST MILE DELIVERY (IEU GT)</t>
+  </si>
+  <si>
+    <t>IFRRU 2014-2020</t>
+  </si>
+  <si>
+    <t>EASY CHARGER SPAIN (FM)</t>
+  </si>
+  <si>
+    <t>ICOSAGEN (IEU LS)</t>
+  </si>
+  <si>
+    <t>S7 EXPRESSWAY PLONSK - CZOSNOW</t>
+  </si>
+  <si>
+    <t>ERSTE LRS ENHANCED SUPPORT FOR MIDCAPS</t>
+  </si>
+  <si>
+    <t>OOSTERWEEL CONNECTION</t>
+  </si>
+  <si>
     <t>STOCKHOLM ENERGY EFFICIENT HOUSING</t>
   </si>
   <si>
-    <t>ASJA WIND REPOWERING AND NEW PROJECTS</t>
-  </si>
-  <si>
-    <t>ICOSAGEN (IEU LS)</t>
-  </si>
-  <si>
-    <t>ENGIE GREEN RDI</t>
-  </si>
-  <si>
-    <t>WINGCOPTER LAST MILE DELIVERY (IEU GT)</t>
+    <t>ILLIMITY SUSTAINABLE LOAN FOR SMES</t>
   </si>
   <si>
     <t>FCA BANK LOAN FOR SMES AND CLIMATE ACTION</t>
   </si>
   <si>
-    <t>EASY CHARGER SPAIN (FM)</t>
-  </si>
-  <si>
-    <t>IFRRU 2014-2020</t>
-  </si>
-  <si>
-    <t>OOSTERWEEL CONNECTION</t>
-  </si>
-  <si>
-    <t>ILLIMITY SUSTAINABLE LOAN FOR SMES</t>
-  </si>
-  <si>
-    <t>S7 EXPRESSWAY PLONSK - CZOSNOW</t>
-  </si>
-  <si>
-    <t>ERSTE LRS ENHANCED SUPPORT FOR MIDCAPS</t>
+    <t>MVM DISTRIBUTION NETWORK UPGRADE II</t>
   </si>
   <si>
     <t>DB LRS ENHANCED SUPPORT FOR MIDCAPS AND CLIMATE</t>
@@ -254,36 +262,33 @@
     <t>ICO MIDCAPS AND SUSTAINABLE LOAN</t>
   </si>
   <si>
-    <t>MVM DISTRIBUTION NETWORK UPGRADE II</t>
+    <t>EU Countries</t>
   </si>
   <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>EU Countries</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
+    <t>São Tomé e Principe</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>São Tomé e Principe</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -293,12 +298,12 @@
     <t>Argentina</t>
   </si>
   <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -320,126 +325,126 @@
     <t>Tunisia</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
+    <t>Senegal</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Senegal</t>
+    <t>Regional - Latin America</t>
   </si>
   <si>
     <t>Mediterranean Countries</t>
   </si>
   <si>
+    <t>Regional - Asia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>Regional - Latin America</t>
-  </si>
-  <si>
-    <t>Regional - Asia</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>Credit lines</t>
   </si>
   <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Composite infrastructure</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Water, sewerage</t>
+  </si>
+  <si>
     <t>Solid waste</t>
   </si>
   <si>
-    <t>Telecom</t>
-  </si>
-  <si>
-    <t>Composite infrastructure</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Water, sewerage</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Urban development</t>
   </si>
   <si>
     <t>Industry</t>
   </si>
   <si>
+    <t>€30,000,000</t>
+  </si>
+  <si>
     <t>€20,000,000</t>
   </si>
   <si>
+    <t>€200,000,000</t>
+  </si>
+  <si>
     <t>€120,000,000</t>
   </si>
   <si>
-    <t>€30,000,000</t>
-  </si>
-  <si>
-    <t>€200,000,000</t>
+    <t>€60,000,000</t>
+  </si>
+  <si>
+    <t>€54,000,000</t>
+  </si>
+  <si>
+    <t>€78,000,000</t>
+  </si>
+  <si>
+    <t>€48,000,000</t>
+  </si>
+  <si>
+    <t>€132,000,000</t>
+  </si>
+  <si>
+    <t>€144,000,000</t>
+  </si>
+  <si>
+    <t>€30,002,400</t>
   </si>
   <si>
     <t>€23,997,600</t>
   </si>
   <si>
-    <t>€78,000,000</t>
-  </si>
-  <si>
-    <t>€144,000,000</t>
-  </si>
-  <si>
-    <t>€30,002,400</t>
-  </si>
-  <si>
-    <t>€132,000,000</t>
-  </si>
-  <si>
-    <t>€48,000,000</t>
-  </si>
-  <si>
-    <t>€60,000,000</t>
-  </si>
-  <si>
-    <t>€54,000,000</t>
+    <t>€135,000,000</t>
   </si>
   <si>
     <t>€15,000,000</t>
   </si>
   <si>
-    <t>€135,000,000</t>
+    <t>€33,465,780</t>
   </si>
   <si>
     <t>€300,000,000</t>
   </si>
   <si>
-    <t>€33,465,780</t>
-  </si>
-  <si>
     <t>€44,400,000</t>
   </si>
   <si>
@@ -452,88 +457,91 @@
     <t>€250,000,000</t>
   </si>
   <si>
+    <t>€8,440,000</t>
+  </si>
+  <si>
     <t>€500,000,000</t>
   </si>
   <si>
     <t>€5,560,000</t>
   </si>
   <si>
-    <t>€8,440,000</t>
-  </si>
-  <si>
     <t>€50,000,000</t>
   </si>
   <si>
+    <t>€26,000,000</t>
+  </si>
+  <si>
     <t>€100,000,000</t>
   </si>
   <si>
     <t>€34,314,000</t>
   </si>
   <si>
-    <t>€26,000,000</t>
+    <t>€3,750,000</t>
   </si>
   <si>
     <t>€189,200,000</t>
   </si>
   <si>
+    <t>€165,550,000</t>
+  </si>
+  <si>
+    <t>€102,924,800</t>
+  </si>
+  <si>
+    <t>€246,600,000</t>
+  </si>
+  <si>
+    <t>€5,000,000</t>
+  </si>
+  <si>
+    <t>€28,400,000</t>
+  </si>
+  <si>
+    <t>€33,750,000</t>
+  </si>
+  <si>
+    <t>€192,081,955</t>
+  </si>
+  <si>
+    <t>€10,000,000</t>
+  </si>
+  <si>
+    <t>€37,500,000</t>
+  </si>
+  <si>
+    <t>€37,125,000</t>
+  </si>
+  <si>
+    <t>€30,375,000</t>
+  </si>
+  <si>
     <t>€154,387,200</t>
   </si>
   <si>
-    <t>€165,550,000</t>
-  </si>
-  <si>
-    <t>€28,400,000</t>
-  </si>
-  <si>
-    <t>€246,600,000</t>
-  </si>
-  <si>
     <t>€46,000,000</t>
   </si>
   <si>
-    <t>€5,000,000</t>
-  </si>
-  <si>
-    <t>€102,924,800</t>
-  </si>
-  <si>
-    <t>€192,081,955</t>
-  </si>
-  <si>
-    <t>€33,750,000</t>
-  </si>
-  <si>
-    <t>€3,750,000</t>
-  </si>
-  <si>
-    <t>€37,500,000</t>
-  </si>
-  <si>
-    <t>€10,000,000</t>
-  </si>
-  <si>
-    <t>€37,125,000</t>
-  </si>
-  <si>
-    <t>€30,375,000</t>
-  </si>
-  <si>
     <t>€45,375,000</t>
   </si>
   <si>
     <t>€4,750,000</t>
   </si>
   <si>
+    <t>€65,789,474</t>
+  </si>
+  <si>
+    <t>€1,200,000</t>
+  </si>
+  <si>
+    <t>€8,800,000</t>
+  </si>
+  <si>
     <t>€40,000,000</t>
   </si>
   <si>
-    <t>€8,800,000</t>
-  </si>
-  <si>
-    <t>€65,789,474</t>
-  </si>
-  <si>
-    <t>€1,200,000</t>
+    <t>€7,500,000</t>
   </si>
   <si>
     <t>€176,723,861</t>
@@ -542,71 +550,71 @@
     <t>€70,000,000</t>
   </si>
   <si>
+    <t>€166,900,000</t>
+  </si>
+  <si>
+    <t>€3,600,000</t>
+  </si>
+  <si>
     <t>€4,500,000</t>
   </si>
   <si>
-    <t>€7,500,000</t>
-  </si>
-  <si>
     <t>€5,550,000</t>
   </si>
   <si>
-    <t>€166,900,000</t>
-  </si>
-  <si>
     <t>€26,400,000</t>
   </si>
   <si>
-    <t>€3,600,000</t>
+    <t>€42,500,000</t>
+  </si>
+  <si>
+    <t>€16,000,000</t>
+  </si>
+  <si>
+    <t>€24,000,000</t>
+  </si>
+  <si>
+    <t>€62,700,000</t>
+  </si>
+  <si>
+    <t>€87,300,000</t>
+  </si>
+  <si>
+    <t>€18,000,000</t>
   </si>
   <si>
     <t>€4,000,000</t>
   </si>
   <si>
-    <t>€16,000,000</t>
+    <t>€220,000,000</t>
+  </si>
+  <si>
+    <t>€400,000,000</t>
   </si>
   <si>
     <t>€225,133,955</t>
   </si>
   <si>
-    <t>€18,000,000</t>
-  </si>
-  <si>
-    <t>€62,700,000</t>
-  </si>
-  <si>
-    <t>€87,300,000</t>
-  </si>
-  <si>
     <t>€90,000,000</t>
   </si>
   <si>
-    <t>€400,000,000</t>
-  </si>
-  <si>
-    <t>€220,000,000</t>
-  </si>
-  <si>
-    <t>€42,500,000</t>
+    <t>€130,000,000</t>
+  </si>
+  <si>
+    <t>€6,250,000</t>
   </si>
   <si>
     <t>€43,750,000</t>
   </si>
   <si>
-    <t>€25,000,000</t>
-  </si>
-  <si>
-    <t>€24,000,000</t>
-  </si>
-  <si>
-    <t>€130,000,000</t>
+    <t>By Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,13 +630,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -643,12 +665,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,6 +683,113 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="30"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Selected Data</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dummysheet!chart_series</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dummysheet!chart_labels</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,7 +1172,7 @@
         <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1057,7 +1189,7 @@
         <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1091,7 +1223,7 @@
         <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1255,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>139</v>
@@ -1272,10 +1404,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>140</v>
@@ -1289,10 +1421,10 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>141</v>
@@ -1306,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>124</v>
@@ -1326,7 +1458,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>143</v>
@@ -1340,7 +1472,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>113</v>
@@ -1360,7 +1492,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>145</v>
@@ -1377,7 +1509,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>146</v>
@@ -1394,10 +1526,10 @@
         <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1405,13 +1537,13 @@
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>147</v>
@@ -1439,16 +1571,16 @@
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1456,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>91</v>
@@ -1465,7 +1597,7 @@
         <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1473,16 +1605,16 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1490,16 +1622,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1513,7 +1645,7 @@
         <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>151</v>
@@ -1547,7 +1679,7 @@
         <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>152</v>
@@ -1595,7 +1727,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>113</v>
@@ -1609,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>96</v>
@@ -1626,13 +1758,13 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>157</v>
@@ -1643,13 +1775,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>158</v>
@@ -1660,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>95</v>
@@ -1677,13 +1809,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>160</v>
@@ -1694,10 +1826,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>113</v>
@@ -1714,10 +1846,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>162</v>
@@ -1731,10 +1863,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>163</v>
@@ -1748,13 +1880,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1762,16 +1894,16 @@
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1779,16 +1911,16 @@
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1796,16 +1928,16 @@
         <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1816,13 +1948,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1830,16 +1962,16 @@
         <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1850,13 +1982,13 @@
         <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1867,13 +1999,13 @@
         <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1884,13 +2016,13 @@
         <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1907,7 +2039,7 @@
         <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1918,7 +2050,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>124</v>
@@ -1932,16 +2064,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1958,7 +2090,7 @@
         <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1969,13 +2101,13 @@
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1983,13 +2115,13 @@
         <v>16</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>172</v>
@@ -2003,10 +2135,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>173</v>
@@ -2020,10 +2152,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>174</v>
@@ -2040,7 +2172,7 @@
         <v>102</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>175</v>
@@ -2057,7 +2189,7 @@
         <v>103</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>176</v>
@@ -2068,13 +2200,13 @@
         <v>17</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>177</v>
@@ -2085,13 +2217,13 @@
         <v>17</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>178</v>
@@ -2102,13 +2234,13 @@
         <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>179</v>
@@ -2122,7 +2254,7 @@
         <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>124</v>
@@ -2142,7 +2274,7 @@
         <v>86</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>181</v>
@@ -2153,16 +2285,16 @@
         <v>18</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2176,10 +2308,10 @@
         <v>86</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2193,10 +2325,10 @@
         <v>105</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2204,16 +2336,16 @@
         <v>18</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2224,13 +2356,13 @@
         <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2238,16 +2370,16 @@
         <v>18</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2261,10 +2393,10 @@
         <v>86</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2272,16 +2404,16 @@
         <v>18</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2289,16 +2421,16 @@
         <v>18</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2309,13 +2441,13 @@
         <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2323,16 +2455,16 @@
         <v>18</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2340,16 +2472,16 @@
         <v>18</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2360,13 +2492,13 @@
         <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2377,13 +2509,13 @@
         <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2391,13 +2523,13 @@
         <v>18</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>186</v>
@@ -2408,13 +2540,13 @@
         <v>18</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>187</v>
@@ -2428,13 +2560,13 @@
         <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2445,13 +2577,13 @@
         <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2462,13 +2594,13 @@
         <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2476,16 +2608,16 @@
         <v>18</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2496,13 +2628,13 @@
         <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2513,13 +2645,13 @@
         <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2527,16 +2659,16 @@
         <v>18</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2544,16 +2676,16 @@
         <v>18</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2561,16 +2693,16 @@
         <v>18</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2578,16 +2710,16 @@
         <v>18</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2595,16 +2727,16 @@
         <v>18</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2612,16 +2744,16 @@
         <v>18</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2629,16 +2761,16 @@
         <v>18</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2646,16 +2778,16 @@
         <v>18</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2663,16 +2795,16 @@
         <v>18</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2819,380 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Data" prompt="Select data to display in chart" sqref="A1">
+      <formula1>"By Year,By Country,By Sector"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>2022</v>
+      </c>
+      <c r="B1">
+        <v>1010041062975</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1">
+        <v>697500000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1">
+        <v>12090000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>353109195900</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>24800000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2">
+        <v>564475860000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>10850000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3">
+        <v>24955000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>31000000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4">
+        <v>150432368470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <v>71718500000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>20150000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>5318670000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6">
+        <v>100015000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>31000000000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>101640750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>4030000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8">
+        <v>4339628000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>6930000000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>32042198455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>84630000000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
+        <v>155962865900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>2790000000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11">
+        <v>149983263025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>70811750000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12">
+        <v>47063325025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>1550000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>129812500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>1162500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>139500000000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17">
+        <v>19890000000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>31000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>42625000000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>77500000000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>160388110000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>9300000000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23">
+        <v>115052097380</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>84110000000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>24800000000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26">
+        <v>18600000000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27">
+        <v>9300000000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28">
+        <v>26729750000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29">
+        <v>13175000000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>66815750000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31">
+        <v>34895763025</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32">
+        <v>2170000000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>10197368470</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testAssignment/loan_data.xlsx
+++ b/testAssignment/loan_data.xlsx
@@ -688,7 +688,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="30"/>
+  <c:style val="8"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2849,19 +2849,19 @@
         <v>2022</v>
       </c>
       <c r="B1">
-        <v>1010041062975</v>
+        <v>1016605368220</v>
       </c>
       <c r="C1" t="s">
         <v>104</v>
       </c>
       <c r="D1">
-        <v>697500000</v>
+        <v>702000000</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1">
-        <v>12090000000</v>
+        <v>12168000000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2869,19 +2869,19 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>353109195900</v>
+        <v>355387061680</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2">
-        <v>24800000000</v>
+        <v>24960000000</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
       </c>
       <c r="F2">
-        <v>564475860000</v>
+        <v>568162672000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>10850000000</v>
+        <v>10920000000</v>
       </c>
       <c r="E3" t="s">
         <v>119</v>
       </c>
       <c r="F3">
-        <v>24955000000</v>
+        <v>25116000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2903,13 +2903,13 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>31000000000</v>
+        <v>31200000000</v>
       </c>
       <c r="E4" t="s">
         <v>116</v>
       </c>
       <c r="F4">
-        <v>150432368470</v>
+        <v>151378157944</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2917,13 +2917,13 @@
         <v>108</v>
       </c>
       <c r="D5">
-        <v>71718500000</v>
+        <v>72181200000</v>
       </c>
       <c r="E5" t="s">
         <v>118</v>
       </c>
       <c r="F5">
-        <v>20150000000</v>
+        <v>20280000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2931,13 +2931,13 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>5318670000</v>
+        <v>5352984000</v>
       </c>
       <c r="E6" t="s">
         <v>124</v>
       </c>
       <c r="F6">
-        <v>100015000000</v>
+        <v>100698000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2945,13 +2945,13 @@
         <v>99</v>
       </c>
       <c r="D7">
-        <v>31000000000</v>
+        <v>31200000000</v>
       </c>
       <c r="E7" t="s">
         <v>120</v>
       </c>
       <c r="F7">
-        <v>101640750000</v>
+        <v>102281400000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2959,13 +2959,13 @@
         <v>92</v>
       </c>
       <c r="D8">
-        <v>4030000000</v>
+        <v>4056000000</v>
       </c>
       <c r="E8" t="s">
         <v>122</v>
       </c>
       <c r="F8">
-        <v>4339628000</v>
+        <v>4367625600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2973,13 +2973,13 @@
         <v>80</v>
       </c>
       <c r="D9">
-        <v>6930000000</v>
+        <v>7020000000</v>
       </c>
       <c r="E9" t="s">
         <v>115</v>
       </c>
       <c r="F9">
-        <v>32042198455</v>
+        <v>32248922316</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2987,13 +2987,13 @@
         <v>94</v>
       </c>
       <c r="D10">
-        <v>84630000000</v>
+        <v>85176000000</v>
       </c>
       <c r="E10" t="s">
         <v>114</v>
       </c>
       <c r="F10">
-        <v>155962865900</v>
+        <v>156973795680</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3001,13 +3001,13 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>2790000000</v>
+        <v>2808000000</v>
       </c>
       <c r="E11" t="s">
         <v>123</v>
       </c>
       <c r="F11">
-        <v>149983263025</v>
+        <v>150950896980</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3015,13 +3015,13 @@
         <v>82</v>
       </c>
       <c r="D12">
-        <v>70811750000</v>
+        <v>71268600000</v>
       </c>
       <c r="E12" t="s">
         <v>121</v>
       </c>
       <c r="F12">
-        <v>47063325025</v>
+        <v>47366959380</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3029,7 +3029,7 @@
         <v>98</v>
       </c>
       <c r="D13">
-        <v>1550000000</v>
+        <v>1560000000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3037,7 +3037,7 @@
         <v>84</v>
       </c>
       <c r="D14">
-        <v>129812500000</v>
+        <v>130650000000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3045,7 +3045,7 @@
         <v>101</v>
       </c>
       <c r="D15">
-        <v>1162500000</v>
+        <v>1170000000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3053,7 +3053,7 @@
         <v>85</v>
       </c>
       <c r="D16">
-        <v>139500000000</v>
+        <v>140400000000</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3061,7 +3061,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <v>19890000000</v>
+        <v>20020000000</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -3069,7 +3069,7 @@
         <v>89</v>
       </c>
       <c r="D18">
-        <v>31000000000</v>
+        <v>31200000000</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -3077,7 +3077,7 @@
         <v>96</v>
       </c>
       <c r="D19">
-        <v>42625000000</v>
+        <v>42900000000</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -3085,7 +3085,7 @@
         <v>88</v>
       </c>
       <c r="D20">
-        <v>77500000000</v>
+        <v>78000000000</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
       <c r="D21">
-        <v>160388110000</v>
+        <v>161422872000</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -3101,7 +3101,7 @@
         <v>106</v>
       </c>
       <c r="D22">
-        <v>9300000000</v>
+        <v>9360000000</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -3109,7 +3109,7 @@
         <v>83</v>
       </c>
       <c r="D23">
-        <v>115052097380</v>
+        <v>115794368976</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -3117,7 +3117,7 @@
         <v>86</v>
       </c>
       <c r="D24">
-        <v>84110000000</v>
+        <v>84630000000</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -3125,7 +3125,7 @@
         <v>90</v>
       </c>
       <c r="D25">
-        <v>24800000000</v>
+        <v>24960000000</v>
       </c>
     </row>
     <row r="26" spans="3:4">
@@ -3133,7 +3133,7 @@
         <v>107</v>
       </c>
       <c r="D26">
-        <v>18600000000</v>
+        <v>18720000000</v>
       </c>
     </row>
     <row r="27" spans="3:4">
@@ -3141,7 +3141,7 @@
         <v>105</v>
       </c>
       <c r="D27">
-        <v>9300000000</v>
+        <v>9360000000</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -3149,7 +3149,7 @@
         <v>103</v>
       </c>
       <c r="D28">
-        <v>26729750000</v>
+        <v>26902200000</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -3157,7 +3157,7 @@
         <v>97</v>
       </c>
       <c r="D29">
-        <v>13175000000</v>
+        <v>13260000000</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -3165,7 +3165,7 @@
         <v>81</v>
       </c>
       <c r="D30">
-        <v>66815750000</v>
+        <v>67270150000</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -3173,7 +3173,7 @@
         <v>111</v>
       </c>
       <c r="D31">
-        <v>34895763025</v>
+        <v>35120896980</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -3181,7 +3181,7 @@
         <v>87</v>
       </c>
       <c r="D32">
-        <v>2170000000</v>
+        <v>2184000000</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -3189,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>10197368470</v>
+        <v>10263157944</v>
       </c>
     </row>
   </sheetData>
